--- a/src/test/dataIn/Elements.xlsx
+++ b/src/test/dataIn/Elements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khoatran/khoa/phuong/Auto_Day2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khoatran/khoa/phuong/Exercise2/src/test/dataIn/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,21 +24,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Phuong yeu Khoa</t>
-  </si>
-  <si>
-    <t>rat</t>
-  </si>
-  <si>
-    <t>nhieu</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>Phuong yeu Khoa 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+  <si>
+    <t>eName</t>
+  </si>
+  <si>
+    <t>eLocator</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>eValue</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Phuong</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>phuongtranthi@gmail.com</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>Quan 12</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>Tan Binh</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Sai Gon</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Tran Thi Phuong</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>/html/body/div/table/tbody/tr/td[2]/table/tbody/tr[4]/td/table/tbody/tr/td[2]/table/tbody/tr[3]/td/p[2]</t>
+  </si>
+  <si>
+    <t>Thank you for registering.</t>
+  </si>
+  <si>
+    <t>input-txt-lastname-name</t>
+  </si>
+  <si>
+    <t>input-txt-phone-name</t>
+  </si>
+  <si>
+    <t>input-txt-username-name</t>
+  </si>
+  <si>
+    <t>input-txt-address1-name</t>
+  </si>
+  <si>
+    <t>input-txt-address2-name</t>
+  </si>
+  <si>
+    <t>input-txt-city-name</t>
+  </si>
+  <si>
+    <t>input-txt-state-name</t>
+  </si>
+  <si>
+    <t>input-txt-postalCode-name</t>
+  </si>
+  <si>
+    <t>input-txt-user-name</t>
+  </si>
+  <si>
+    <t>input-txt-password-name</t>
+  </si>
+  <si>
+    <t>input-txt-confirmpw-name</t>
+  </si>
+  <si>
+    <t>click-bt-register-name</t>
+  </si>
+  <si>
+    <t>input-txt-firstname-name</t>
+  </si>
+  <si>
+    <t>gettext-txt-title-xpath</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>TOGO</t>
+  </si>
+  <si>
+    <t>selectOption-aoption-country-tagname</t>
   </si>
 </sst>
 </file>
@@ -54,12 +177,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,44 +484,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/dataIn/Elements.xlsx
+++ b/src/test/dataIn/Elements.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="checkout" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>eName</t>
   </si>
@@ -162,19 +163,66 @@
   </si>
   <si>
     <t>selectOption-aoption-country-tagname</t>
+  </si>
+  <si>
+    <t>quick-view</t>
+  </si>
+  <si>
+    <t>click-bt-quickview-class</t>
+  </si>
+  <si>
+    <t>home-page-tabs</t>
+  </si>
+  <si>
+    <t>moveto-tab-homepage-id</t>
+  </si>
+  <si>
+    <t>hover-part-product-class</t>
+  </si>
+  <si>
+    <t>exclusive</t>
+  </si>
+  <si>
+    <t>click-bt-addtocard-class</t>
+  </si>
+  <si>
+    <t>fancybox-iframe</t>
+  </si>
+  <si>
+    <t>switch-iframe-fancybox-class</t>
+  </si>
+  <si>
+    <t>layer_cart</t>
+  </si>
+  <si>
+    <t>wait-layer-cart-id</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>click-bt-continue-class</t>
+  </si>
+  <si>
+    <t>product-container</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,10 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,4 +722,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/dataIn/Elements.xlsx
+++ b/src/test/dataIn/Elements.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
